--- a/results/counting.xlsx
+++ b/results/counting.xlsx
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>549</v>
+        <v>662</v>
       </c>
       <c r="C15" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
